--- a/Bills/Naresh_Divekar_Jobuss.xlsx
+++ b/Bills/Naresh_Divekar_Jobuss.xlsx
@@ -1500,7 +1500,7 @@
       </c>
       <c r="G12" s="54" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>28-02-2026</t>
         </is>
       </c>
       <c r="H12" s="29" t="n"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G13" s="59" t="inlineStr">
         <is>
-          <t>02-03-2026</t>
+          <t>03-03-2026</t>
         </is>
       </c>
       <c r="H13" s="60" t="n"/>

--- a/Bills/Naresh_Divekar_Jobuss.xlsx
+++ b/Bills/Naresh_Divekar_Jobuss.xlsx
@@ -1950,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1982,7 +1982,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1993,122 +1992,117 @@
       </c>
       <c r="B1" s="125" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="125" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="125" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="125" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="125" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="125" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="125" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="125" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="125" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="125" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="125" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="125" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="125" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="125" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="125" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="125" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="125" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="125" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="125" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="125" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="125" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="125" t="inlineStr">
+      <c r="W1" s="125" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="125" t="inlineStr">
+      <c r="X1" s="125" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="125" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="125" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -2120,80 +2114,75 @@
       </c>
       <c r="B2" s="126" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10034</t>
         </is>
       </c>
       <c r="C2" s="126" t="inlineStr">
         <is>
-          <t>JB-10034</t>
-        </is>
-      </c>
-      <c r="D2" s="126" t="inlineStr">
-        <is>
           <t>DEEPASVI SURESH HINDALEKAR</t>
         </is>
       </c>
+      <c r="D2" s="126" t="n">
+        <v>28000</v>
+      </c>
       <c r="E2" s="126" t="n">
-        <v>28000</v>
+        <v>31</v>
       </c>
       <c r="F2" s="126" t="n">
         <v>31</v>
       </c>
       <c r="G2" s="126" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H2" s="126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="126" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K2" s="126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L2" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="126" t="n">
         <v>30</v>
       </c>
-      <c r="M2" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="126" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="126" t="n">
-        <v>30</v>
+        <v>27096.77</v>
       </c>
       <c r="P2" s="126" t="n">
-        <v>27096.77</v>
+        <v>2000</v>
       </c>
       <c r="Q2" s="126" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R2" s="126" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="126" t="n">
-        <v>0</v>
+        <v>29096.77</v>
       </c>
       <c r="T2" s="126" t="n">
-        <v>29096.77</v>
+        <v>34334.19</v>
       </c>
       <c r="U2" s="126" t="n">
-        <v>2618.71</v>
+        <v/>
       </c>
       <c r="V2" s="126" t="n">
         <v>2618.71</v>
       </c>
       <c r="W2" s="126" t="n">
-        <v>0</v>
+        <v>2618.71</v>
       </c>
       <c r="X2" s="126" t="n">
-        <v>34334.19</v>
-      </c>
-      <c r="Y2" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2205,80 +2194,75 @@
       </c>
       <c r="B3" s="126" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10036</t>
         </is>
       </c>
       <c r="C3" s="126" t="inlineStr">
         <is>
-          <t>JB-10036</t>
-        </is>
-      </c>
-      <c r="D3" s="126" t="inlineStr">
-        <is>
           <t>PRAJAKTA SUDHIR GOSAVI</t>
         </is>
       </c>
+      <c r="D3" s="126" t="n">
+        <v>24500</v>
+      </c>
       <c r="E3" s="126" t="n">
-        <v>24500</v>
+        <v>31</v>
       </c>
       <c r="F3" s="126" t="n">
         <v>31</v>
       </c>
       <c r="G3" s="126" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H3" s="126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="126" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K3" s="126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L3" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="126" t="n">
         <v>30</v>
       </c>
-      <c r="M3" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="126" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" s="126" t="n">
-        <v>30</v>
+        <v>23709.68</v>
       </c>
       <c r="P3" s="126" t="n">
-        <v>23709.68</v>
+        <v>2000</v>
       </c>
       <c r="Q3" s="126" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R3" s="126" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="126" t="n">
-        <v>0</v>
+        <v>25709.68</v>
       </c>
       <c r="T3" s="126" t="n">
-        <v>25709.68</v>
+        <v>30337.42</v>
       </c>
       <c r="U3" s="126" t="n">
-        <v>2313.87</v>
+        <v/>
       </c>
       <c r="V3" s="126" t="n">
         <v>2313.87</v>
       </c>
       <c r="W3" s="126" t="n">
-        <v>0</v>
+        <v>2313.87</v>
       </c>
       <c r="X3" s="126" t="n">
-        <v>30337.42</v>
-      </c>
-      <c r="Y3" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2290,80 +2274,75 @@
       </c>
       <c r="B4" s="126" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10055</t>
         </is>
       </c>
       <c r="C4" s="126" t="inlineStr">
         <is>
-          <t>JB-10055</t>
-        </is>
-      </c>
-      <c r="D4" s="126" t="inlineStr">
-        <is>
           <t>ANUJA BALIRAM BAHIRA</t>
         </is>
       </c>
+      <c r="D4" s="126" t="n">
+        <v>23000</v>
+      </c>
       <c r="E4" s="126" t="n">
-        <v>23000</v>
+        <v>31</v>
       </c>
       <c r="F4" s="126" t="n">
         <v>31</v>
       </c>
       <c r="G4" s="126" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H4" s="126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="126" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K4" s="126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L4" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="126" t="n">
         <v>30</v>
       </c>
-      <c r="M4" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="126" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" s="126" t="n">
-        <v>30</v>
+        <v>22258.06</v>
       </c>
       <c r="P4" s="126" t="n">
-        <v>22258.06</v>
+        <v>2000</v>
       </c>
       <c r="Q4" s="126" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="126" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="126" t="n">
-        <v>0</v>
+        <v>24258.06</v>
       </c>
       <c r="T4" s="126" t="n">
-        <v>24258.06</v>
+        <v>28624.52</v>
       </c>
       <c r="U4" s="126" t="n">
-        <v>2183.23</v>
+        <v/>
       </c>
       <c r="V4" s="126" t="n">
         <v>2183.23</v>
       </c>
       <c r="W4" s="126" t="n">
-        <v>0</v>
+        <v>2183.23</v>
       </c>
       <c r="X4" s="126" t="n">
-        <v>28624.52</v>
-      </c>
-      <c r="Y4" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2375,80 +2354,75 @@
       </c>
       <c r="B5" s="126" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10056</t>
         </is>
       </c>
       <c r="C5" s="126" t="inlineStr">
         <is>
-          <t>JB-10056</t>
-        </is>
-      </c>
-      <c r="D5" s="126" t="inlineStr">
-        <is>
           <t>SARITA SUNDER POOJARI</t>
         </is>
       </c>
+      <c r="D5" s="126" t="n">
+        <v>23000</v>
+      </c>
       <c r="E5" s="126" t="n">
-        <v>23000</v>
+        <v>31</v>
       </c>
       <c r="F5" s="126" t="n">
         <v>31</v>
       </c>
       <c r="G5" s="126" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H5" s="126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="126" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K5" s="126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L5" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="126" t="n">
         <v>30</v>
       </c>
-      <c r="M5" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="126" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" s="126" t="n">
-        <v>30</v>
+        <v>22258.06</v>
       </c>
       <c r="P5" s="126" t="n">
-        <v>22258.06</v>
+        <v>2000</v>
       </c>
       <c r="Q5" s="126" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R5" s="126" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="126" t="n">
-        <v>0</v>
+        <v>24258.06</v>
       </c>
       <c r="T5" s="126" t="n">
-        <v>24258.06</v>
+        <v>28624.52</v>
       </c>
       <c r="U5" s="126" t="n">
-        <v>2183.23</v>
+        <v/>
       </c>
       <c r="V5" s="126" t="n">
         <v>2183.23</v>
       </c>
       <c r="W5" s="126" t="n">
-        <v>0</v>
+        <v>2183.23</v>
       </c>
       <c r="X5" s="126" t="n">
-        <v>28624.52</v>
-      </c>
-      <c r="Y5" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2460,80 +2434,75 @@
       </c>
       <c r="B6" s="126" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10121</t>
         </is>
       </c>
       <c r="C6" s="126" t="inlineStr">
         <is>
-          <t>JB-10121</t>
-        </is>
-      </c>
-      <c r="D6" s="126" t="inlineStr">
-        <is>
           <t>JAYSHREE DIGAMBAR BHOSALE</t>
         </is>
       </c>
+      <c r="D6" s="126" t="n">
+        <v>25000</v>
+      </c>
       <c r="E6" s="126" t="n">
-        <v>25000</v>
+        <v>31</v>
       </c>
       <c r="F6" s="126" t="n">
         <v>31</v>
       </c>
       <c r="G6" s="126" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H6" s="126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="126" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K6" s="126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L6" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="126" t="n">
         <v>30</v>
       </c>
-      <c r="M6" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="126" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" s="126" t="n">
-        <v>30</v>
+        <v>24193.55</v>
       </c>
       <c r="P6" s="126" t="n">
-        <v>24193.55</v>
+        <v>2000</v>
       </c>
       <c r="Q6" s="126" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R6" s="126" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="126" t="n">
-        <v>0</v>
+        <v>26193.55</v>
       </c>
       <c r="T6" s="126" t="n">
-        <v>26193.55</v>
+        <v>30908.39</v>
       </c>
       <c r="U6" s="126" t="n">
-        <v>2357.42</v>
+        <v/>
       </c>
       <c r="V6" s="126" t="n">
         <v>2357.42</v>
       </c>
       <c r="W6" s="126" t="n">
-        <v>0</v>
+        <v>2357.42</v>
       </c>
       <c r="X6" s="126" t="n">
-        <v>30908.39</v>
-      </c>
-      <c r="Y6" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2545,80 +2514,75 @@
       </c>
       <c r="B7" s="126" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10139</t>
         </is>
       </c>
       <c r="C7" s="126" t="inlineStr">
         <is>
-          <t>JB-10139</t>
-        </is>
-      </c>
-      <c r="D7" s="126" t="inlineStr">
-        <is>
           <t>HARSHADA DIPAK MAHADIK</t>
         </is>
       </c>
+      <c r="D7" s="126" t="n">
+        <v>25398</v>
+      </c>
       <c r="E7" s="126" t="n">
-        <v>25398</v>
+        <v>31</v>
       </c>
       <c r="F7" s="126" t="n">
         <v>31</v>
       </c>
       <c r="G7" s="126" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H7" s="126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="126" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K7" s="126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="126" t="n">
         <v>30</v>
       </c>
-      <c r="M7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="126" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" s="126" t="n">
-        <v>30</v>
+        <v>24578.71</v>
       </c>
       <c r="P7" s="126" t="n">
-        <v>24578.71</v>
+        <v>2000</v>
       </c>
       <c r="Q7" s="126" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R7" s="126" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="126" t="n">
-        <v>0</v>
+        <v>26578.71</v>
       </c>
       <c r="T7" s="126" t="n">
-        <v>26578.71</v>
+        <v>31362.88</v>
       </c>
       <c r="U7" s="126" t="n">
-        <v>2392.08</v>
+        <v/>
       </c>
       <c r="V7" s="126" t="n">
         <v>2392.08</v>
       </c>
       <c r="W7" s="126" t="n">
-        <v>0</v>
+        <v>2392.08</v>
       </c>
       <c r="X7" s="126" t="n">
-        <v>31362.88</v>
-      </c>
-      <c r="Y7" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2630,80 +2594,75 @@
       </c>
       <c r="B8" s="126" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10225</t>
         </is>
       </c>
       <c r="C8" s="126" t="inlineStr">
         <is>
-          <t>JB-10225</t>
-        </is>
-      </c>
-      <c r="D8" s="126" t="inlineStr">
-        <is>
           <t>ARCHANA DNYANESHWAR ANDHERE</t>
         </is>
       </c>
+      <c r="D8" s="126" t="n">
+        <v>24800</v>
+      </c>
       <c r="E8" s="126" t="n">
-        <v>24800</v>
+        <v>31</v>
       </c>
       <c r="F8" s="126" t="n">
         <v>31</v>
       </c>
       <c r="G8" s="126" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H8" s="126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="126" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K8" s="126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L8" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="126" t="n">
         <v>30</v>
       </c>
-      <c r="M8" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="126" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" s="126" t="n">
-        <v>30</v>
+        <v>24000</v>
       </c>
       <c r="P8" s="126" t="n">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="Q8" s="126" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R8" s="126" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="126" t="n">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="T8" s="126" t="n">
-        <v>26000</v>
+        <v>30680</v>
       </c>
       <c r="U8" s="126" t="n">
-        <v>2340</v>
+        <v/>
       </c>
       <c r="V8" s="126" t="n">
         <v>2340</v>
       </c>
       <c r="W8" s="126" t="n">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="X8" s="126" t="n">
-        <v>30680</v>
-      </c>
-      <c r="Y8" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2715,7 +2674,10 @@
       </c>
       <c r="B9" s="127" t="n"/>
       <c r="C9" s="127" t="n"/>
-      <c r="D9" s="127" t="n"/>
+      <c r="D9" s="127">
+        <f>ROUND(SUM(D2:D8), 0)</f>
+        <v/>
+      </c>
       <c r="E9" s="127">
         <f>ROUND(SUM(E2:E8), 0)</f>
         <v/>
@@ -2777,26 +2739,22 @@
         <v/>
       </c>
       <c r="T9" s="127">
-        <f>ROUND(SUM(T2:T8), 0)</f>
-        <v/>
-      </c>
-      <c r="U9" s="127">
-        <f>CEILING(SUM(U2:U8), 1)</f>
-        <v/>
-      </c>
+        <f>ROUND(SUM(S9), 0)</f>
+        <v/>
+      </c>
+      <c r="U9" s="127" t="n"/>
       <c r="V9" s="127">
         <f>CEILING(SUM(V2:V8), 1)</f>
         <v/>
       </c>
       <c r="W9" s="127">
-        <f>ROUND(SUM(W2:W8), 0)</f>
+        <f>CEILING(SUM(W2:W8), 1)</f>
         <v/>
       </c>
       <c r="X9" s="127">
-        <f>ROUND(SUM(T9,U9,V9,W9), 0)</f>
-        <v/>
-      </c>
-      <c r="Y9" s="127" t="n"/>
+        <f>ROUND(SUM(X2:X8), 0)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Naresh_Divekar_Jobuss.xlsx
+++ b/Bills/Naresh_Divekar_Jobuss.xlsx
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -797,7 +797,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1627,7 +1631,7 @@
     <row r="23">
       <c r="A23" s="19" t="n"/>
       <c r="H23" s="119" t="n">
-        <v>214872</v>
+        <v>214873</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1638,7 +1642,7 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Two Lakh, Fourteen Thousand, Eight Hundred And Seventy-Two Only</t>
+          <t>Two Lakh, Fourteen Thousand, Eight Hundred And Seventy-Three Only</t>
         </is>
       </c>
       <c r="H24" s="111" t="n"/>
@@ -1950,7 +1954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,7 +1985,6 @@
     <col width="18" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2082,27 +2085,22 @@
       </c>
       <c r="T1" s="125" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="125" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="125" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="125" t="inlineStr">
+      <c r="W1" s="125" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="125" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="125" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="125" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -2122,67 +2120,64 @@
           <t>DEEPASVI SURESH HINDALEKAR</t>
         </is>
       </c>
-      <c r="D2" s="126" t="n">
+      <c r="D2" s="127" t="n">
         <v>28000</v>
       </c>
-      <c r="E2" s="126" t="n">
+      <c r="E2" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="F2" s="126" t="n">
+      <c r="F2" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="G2" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="126" t="n">
+      <c r="G2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="126" t="n">
+      <c r="I2" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="126" t="n">
+      <c r="J2" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="K2" s="126" t="n">
+      <c r="K2" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="L2" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="126" t="n">
+      <c r="L2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="O2" s="126" t="n">
+      <c r="O2" s="127" t="n">
         <v>27096.77</v>
       </c>
-      <c r="P2" s="126" t="n">
+      <c r="P2" s="127" t="n">
         <v>2000</v>
       </c>
-      <c r="Q2" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="126" t="n">
+      <c r="Q2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="127" t="n">
         <v>29096.77</v>
       </c>
-      <c r="T2" s="126" t="n">
+      <c r="T2" s="127" t="n">
+        <v>2618.71</v>
+      </c>
+      <c r="U2" s="127" t="n">
+        <v>2618.71</v>
+      </c>
+      <c r="V2" s="127" t="n">
         <v>34334.19</v>
       </c>
-      <c r="U2" s="126" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="126" t="n">
-        <v>2618.71</v>
-      </c>
       <c r="W2" s="126" t="n">
-        <v>2618.71</v>
-      </c>
-      <c r="X2" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2202,67 +2197,64 @@
           <t>PRAJAKTA SUDHIR GOSAVI</t>
         </is>
       </c>
-      <c r="D3" s="126" t="n">
+      <c r="D3" s="127" t="n">
         <v>24500</v>
       </c>
-      <c r="E3" s="126" t="n">
+      <c r="E3" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="F3" s="126" t="n">
+      <c r="F3" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="G3" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="126" t="n">
+      <c r="G3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="126" t="n">
+      <c r="I3" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="126" t="n">
+      <c r="J3" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="K3" s="126" t="n">
+      <c r="K3" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="L3" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="126" t="n">
+      <c r="L3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="O3" s="126" t="n">
+      <c r="O3" s="127" t="n">
         <v>23709.68</v>
       </c>
-      <c r="P3" s="126" t="n">
+      <c r="P3" s="127" t="n">
         <v>2000</v>
       </c>
-      <c r="Q3" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="126" t="n">
+      <c r="Q3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="127" t="n">
         <v>25709.68</v>
       </c>
-      <c r="T3" s="126" t="n">
+      <c r="T3" s="127" t="n">
+        <v>2313.87</v>
+      </c>
+      <c r="U3" s="127" t="n">
+        <v>2313.87</v>
+      </c>
+      <c r="V3" s="127" t="n">
         <v>30337.42</v>
       </c>
-      <c r="U3" s="126" t="n">
-        <v/>
-      </c>
-      <c r="V3" s="126" t="n">
-        <v>2313.87</v>
-      </c>
       <c r="W3" s="126" t="n">
-        <v>2313.87</v>
-      </c>
-      <c r="X3" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2282,67 +2274,64 @@
           <t>ANUJA BALIRAM BAHIRA</t>
         </is>
       </c>
-      <c r="D4" s="126" t="n">
+      <c r="D4" s="127" t="n">
         <v>23000</v>
       </c>
-      <c r="E4" s="126" t="n">
+      <c r="E4" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="F4" s="126" t="n">
+      <c r="F4" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="G4" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="126" t="n">
+      <c r="G4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="126" t="n">
+      <c r="I4" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="126" t="n">
+      <c r="J4" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="K4" s="126" t="n">
+      <c r="K4" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="126" t="n">
+      <c r="L4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="O4" s="126" t="n">
+      <c r="O4" s="127" t="n">
         <v>22258.06</v>
       </c>
-      <c r="P4" s="126" t="n">
+      <c r="P4" s="127" t="n">
         <v>2000</v>
       </c>
-      <c r="Q4" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="126" t="n">
+      <c r="Q4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="127" t="n">
         <v>24258.06</v>
       </c>
-      <c r="T4" s="126" t="n">
+      <c r="T4" s="127" t="n">
+        <v>2183.23</v>
+      </c>
+      <c r="U4" s="127" t="n">
+        <v>2183.23</v>
+      </c>
+      <c r="V4" s="127" t="n">
         <v>28624.52</v>
       </c>
-      <c r="U4" s="126" t="n">
-        <v/>
-      </c>
-      <c r="V4" s="126" t="n">
-        <v>2183.23</v>
-      </c>
       <c r="W4" s="126" t="n">
-        <v>2183.23</v>
-      </c>
-      <c r="X4" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2362,67 +2351,64 @@
           <t>SARITA SUNDER POOJARI</t>
         </is>
       </c>
-      <c r="D5" s="126" t="n">
+      <c r="D5" s="127" t="n">
         <v>23000</v>
       </c>
-      <c r="E5" s="126" t="n">
+      <c r="E5" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="F5" s="126" t="n">
+      <c r="F5" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="G5" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="126" t="n">
+      <c r="G5" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="126" t="n">
+      <c r="I5" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="126" t="n">
+      <c r="J5" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="K5" s="126" t="n">
+      <c r="K5" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="L5" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="126" t="n">
+      <c r="L5" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="O5" s="126" t="n">
+      <c r="O5" s="127" t="n">
         <v>22258.06</v>
       </c>
-      <c r="P5" s="126" t="n">
+      <c r="P5" s="127" t="n">
         <v>2000</v>
       </c>
-      <c r="Q5" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="126" t="n">
+      <c r="Q5" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="127" t="n">
         <v>24258.06</v>
       </c>
-      <c r="T5" s="126" t="n">
+      <c r="T5" s="127" t="n">
+        <v>2183.23</v>
+      </c>
+      <c r="U5" s="127" t="n">
+        <v>2183.23</v>
+      </c>
+      <c r="V5" s="127" t="n">
         <v>28624.52</v>
       </c>
-      <c r="U5" s="126" t="n">
-        <v/>
-      </c>
-      <c r="V5" s="126" t="n">
-        <v>2183.23</v>
-      </c>
       <c r="W5" s="126" t="n">
-        <v>2183.23</v>
-      </c>
-      <c r="X5" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2442,67 +2428,64 @@
           <t>JAYSHREE DIGAMBAR BHOSALE</t>
         </is>
       </c>
-      <c r="D6" s="126" t="n">
+      <c r="D6" s="127" t="n">
         <v>25000</v>
       </c>
-      <c r="E6" s="126" t="n">
+      <c r="E6" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="F6" s="126" t="n">
+      <c r="F6" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="G6" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="126" t="n">
+      <c r="G6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="126" t="n">
+      <c r="I6" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="126" t="n">
+      <c r="J6" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="K6" s="126" t="n">
+      <c r="K6" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="L6" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="126" t="n">
+      <c r="L6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="O6" s="126" t="n">
+      <c r="O6" s="127" t="n">
         <v>24193.55</v>
       </c>
-      <c r="P6" s="126" t="n">
+      <c r="P6" s="127" t="n">
         <v>2000</v>
       </c>
-      <c r="Q6" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="126" t="n">
+      <c r="Q6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="127" t="n">
         <v>26193.55</v>
       </c>
-      <c r="T6" s="126" t="n">
+      <c r="T6" s="127" t="n">
+        <v>2357.42</v>
+      </c>
+      <c r="U6" s="127" t="n">
+        <v>2357.42</v>
+      </c>
+      <c r="V6" s="127" t="n">
         <v>30908.39</v>
       </c>
-      <c r="U6" s="126" t="n">
-        <v/>
-      </c>
-      <c r="V6" s="126" t="n">
-        <v>2357.42</v>
-      </c>
       <c r="W6" s="126" t="n">
-        <v>2357.42</v>
-      </c>
-      <c r="X6" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2522,67 +2505,64 @@
           <t>HARSHADA DIPAK MAHADIK</t>
         </is>
       </c>
-      <c r="D7" s="126" t="n">
+      <c r="D7" s="127" t="n">
         <v>25398</v>
       </c>
-      <c r="E7" s="126" t="n">
+      <c r="E7" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="F7" s="126" t="n">
+      <c r="F7" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="G7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="126" t="n">
+      <c r="G7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="126" t="n">
+      <c r="I7" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="126" t="n">
+      <c r="J7" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="K7" s="126" t="n">
+      <c r="K7" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="L7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="126" t="n">
+      <c r="L7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="O7" s="126" t="n">
+      <c r="O7" s="127" t="n">
         <v>24578.71</v>
       </c>
-      <c r="P7" s="126" t="n">
+      <c r="P7" s="127" t="n">
         <v>2000</v>
       </c>
-      <c r="Q7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="126" t="n">
+      <c r="Q7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="127" t="n">
         <v>26578.71</v>
       </c>
-      <c r="T7" s="126" t="n">
+      <c r="T7" s="127" t="n">
+        <v>2392.08</v>
+      </c>
+      <c r="U7" s="127" t="n">
+        <v>2392.08</v>
+      </c>
+      <c r="V7" s="127" t="n">
         <v>31362.88</v>
       </c>
-      <c r="U7" s="126" t="n">
-        <v/>
-      </c>
-      <c r="V7" s="126" t="n">
-        <v>2392.08</v>
-      </c>
       <c r="W7" s="126" t="n">
-        <v>2392.08</v>
-      </c>
-      <c r="X7" s="126" t="n">
         <v/>
       </c>
     </row>
@@ -2602,159 +2582,152 @@
           <t>ARCHANA DNYANESHWAR ANDHERE</t>
         </is>
       </c>
-      <c r="D8" s="126" t="n">
+      <c r="D8" s="127" t="n">
         <v>24800</v>
       </c>
-      <c r="E8" s="126" t="n">
+      <c r="E8" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="F8" s="126" t="n">
+      <c r="F8" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="G8" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="126" t="n">
+      <c r="G8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="126" t="n">
+      <c r="I8" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="126" t="n">
+      <c r="J8" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="K8" s="126" t="n">
+      <c r="K8" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="L8" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="126" t="n">
+      <c r="L8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="127" t="n">
         <v>30</v>
       </c>
-      <c r="O8" s="126" t="n">
+      <c r="O8" s="127" t="n">
         <v>24000</v>
       </c>
-      <c r="P8" s="126" t="n">
+      <c r="P8" s="127" t="n">
         <v>2000</v>
       </c>
-      <c r="Q8" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="126" t="n">
+      <c r="Q8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="127" t="n">
         <v>26000</v>
       </c>
-      <c r="T8" s="126" t="n">
+      <c r="T8" s="127" t="n">
+        <v>2340</v>
+      </c>
+      <c r="U8" s="127" t="n">
+        <v>2340</v>
+      </c>
+      <c r="V8" s="127" t="n">
         <v>30680</v>
       </c>
-      <c r="U8" s="126" t="n">
+      <c r="W8" s="126" t="n">
         <v/>
       </c>
-      <c r="V8" s="126" t="n">
-        <v>2340</v>
-      </c>
-      <c r="W8" s="126" t="n">
-        <v>2340</v>
-      </c>
-      <c r="X8" s="126" t="n">
-        <v/>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="127" t="inlineStr">
+      <c r="A9" s="128" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B9" s="127" t="n"/>
-      <c r="C9" s="127" t="n"/>
-      <c r="D9" s="127">
+      <c r="B9" s="128" t="n"/>
+      <c r="C9" s="128" t="n"/>
+      <c r="D9" s="129">
         <f>ROUND(SUM(D2:D8), 0)</f>
         <v/>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="129">
         <f>ROUND(SUM(E2:E8), 0)</f>
         <v/>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="129">
         <f>ROUND(SUM(F2:F8), 0)</f>
         <v/>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="129">
         <f>ROUND(SUM(G2:G8), 0)</f>
         <v/>
       </c>
-      <c r="H9" s="127">
+      <c r="H9" s="129">
         <f>ROUND(SUM(H2:H8), 0)</f>
         <v/>
       </c>
-      <c r="I9" s="127">
+      <c r="I9" s="129">
         <f>ROUND(SUM(I2:I8), 0)</f>
         <v/>
       </c>
-      <c r="J9" s="127">
+      <c r="J9" s="129">
         <f>ROUND(SUM(J2:J8), 0)</f>
         <v/>
       </c>
-      <c r="K9" s="127">
+      <c r="K9" s="129">
         <f>ROUND(SUM(K2:K8), 0)</f>
         <v/>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="129">
         <f>ROUND(SUM(L2:L8), 0)</f>
         <v/>
       </c>
-      <c r="M9" s="127">
+      <c r="M9" s="129">
         <f>ROUND(SUM(M2:M8), 0)</f>
         <v/>
       </c>
-      <c r="N9" s="127">
+      <c r="N9" s="129">
         <f>ROUND(SUM(N2:N8), 0)</f>
         <v/>
       </c>
-      <c r="O9" s="127">
+      <c r="O9" s="129">
         <f>ROUND(SUM(O2:O8), 0)</f>
         <v/>
       </c>
-      <c r="P9" s="127">
+      <c r="P9" s="129">
         <f>ROUND(SUM(P2:P8), 0)</f>
         <v/>
       </c>
-      <c r="Q9" s="127">
+      <c r="Q9" s="129">
         <f>ROUND(SUM(Q2:Q8), 0)</f>
         <v/>
       </c>
-      <c r="R9" s="127">
+      <c r="R9" s="129">
         <f>ROUND(SUM(R2:R8), 0)</f>
         <v/>
       </c>
-      <c r="S9" s="127">
+      <c r="S9" s="129">
         <f>ROUND(SUM(S2:S8), 0)</f>
         <v/>
       </c>
-      <c r="T9" s="127">
-        <f>ROUND(SUM(S9), 0)</f>
+      <c r="T9" s="129">
+        <f>CEILING(SUM(T2:T8), 1)</f>
         <v/>
       </c>
-      <c r="U9" s="127" t="n"/>
-      <c r="V9" s="127">
-        <f>CEILING(SUM(V2:V8), 1)</f>
+      <c r="U9" s="129">
+        <f>CEILING(SUM(U2:U8), 1)</f>
         <v/>
       </c>
-      <c r="W9" s="127">
-        <f>CEILING(SUM(W2:W8), 1)</f>
+      <c r="V9" s="129">
+        <f>ROUND(SUM(S9,T9,U9), 0)</f>
         <v/>
       </c>
-      <c r="X9" s="127">
-        <f>ROUND(SUM(X2:X8), 0)</f>
-        <v/>
-      </c>
+      <c r="W9" s="128" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
